--- a/quanlysinhvien/danhsachhocphan/lophocphan/96127_dsSV.xlsx
+++ b/quanlysinhvien/danhsachhocphan/lophocphan/96127_dsSV.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Mã SV</t>
   </si>
@@ -42,33 +42,6 @@
   </si>
   <si>
     <t>Điểm TB</t>
-  </si>
-  <si>
-    <t>SV001</t>
-  </si>
-  <si>
-    <t>Nguyễn Tài Tiêu</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>CNTT2.1-K60</t>
-  </si>
-  <si>
-    <t>27-10-1997</t>
-  </si>
-  <si>
-    <t>Nam</t>
-  </si>
-  <si>
-    <t>tieunt@gmail.com</t>
-  </si>
-  <si>
-    <t>0123456789</t>
-  </si>
-  <si>
-    <t>Hà Nội</t>
   </si>
 </sst>
 </file>
@@ -108,11 +81,11 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -121,7 +94,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="B1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
@@ -157,38 +130,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2">
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" t="n">
-        <v>3.75</v>
-      </c>
-    </row>
+    <row r="2"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/quanlysinhvien/danhsachhocphan/lophocphan/96127_dsSV.xlsx
+++ b/quanlysinhvien/danhsachhocphan/lophocphan/96127_dsSV.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Mã SV</t>
   </si>
@@ -42,6 +42,33 @@
   </si>
   <si>
     <t>Điểm TB</t>
+  </si>
+  <si>
+    <t>SV001</t>
+  </si>
+  <si>
+    <t>Nguyễn Tài Tiêu</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>CNTT2.1-K60</t>
+  </si>
+  <si>
+    <t>27-10-1997</t>
+  </si>
+  <si>
+    <t>Nam</t>
+  </si>
+  <si>
+    <t>tieunt@gmail.com</t>
+  </si>
+  <si>
+    <t>0122245678</t>
+  </si>
+  <si>
+    <t>Hà Nội</t>
   </si>
 </sst>
 </file>
@@ -81,11 +108,11 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -94,7 +121,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="B1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
@@ -130,7 +157,38 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2"/>
+    <row r="2">
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" t="n">
+        <v>3.4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
